--- a/Modelo/datos/Raw_Data/Matriz_de_Adyacencia_Pensiones_validada_NO_TOCAR.xlsx
+++ b/Modelo/datos/Raw_Data/Matriz_de_Adyacencia_Pensiones_validada_NO_TOCAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/21a7d57e8591b932/Escritorio/CICS/2025/Tesis/Objetivos de Aprendizaje/Modelo/datos/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C305D30B-B458-446B-B811-6F884BAD4628}"/>
+  <xr:revisionPtr revIDLastSave="651" documentId="8_{00D88C31-2993-4F88-955D-B3AEA2AC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527E32A8-3B6A-4EDB-A596-CD9A7D230C11}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E85862A8-A9B5-4BB7-B4AF-3D0252E6C1A3}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$BS$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$2:$BU$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="83">
   <si>
     <t>Que_es_pension</t>
   </si>
@@ -284,6 +284,12 @@
   <si>
     <t>Tasa_Interes_(RV)</t>
   </si>
+  <si>
+    <t>Jubilación</t>
+  </si>
+  <si>
+    <t>Rentabilidad</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,6 +374,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1407,70 +1416,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD69CEB-FB4B-428B-8D1B-77C5ED66F830}">
-  <dimension ref="A1:BS71"/>
+  <dimension ref="A1:BU73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1:AQ1048576"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="27.59765625" customWidth="1"/>
-    <col min="3" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" customWidth="1"/>
-    <col min="6" max="11" width="11.3984375" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" customWidth="1"/>
-    <col min="13" max="17" width="11.3984375" customWidth="1"/>
-    <col min="18" max="18" width="10.86328125" customWidth="1"/>
-    <col min="19" max="19" width="11.3984375" customWidth="1"/>
+    <col min="3" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="6" width="11.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="13" width="11.3984375" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" customWidth="1"/>
+    <col min="15" max="19" width="11.3984375" customWidth="1"/>
     <col min="20" max="20" width="10.86328125" customWidth="1"/>
-    <col min="21" max="24" width="11.3984375" customWidth="1"/>
-    <col min="25" max="26" width="10.86328125" customWidth="1"/>
-    <col min="27" max="27" width="13.265625" customWidth="1"/>
-    <col min="28" max="28" width="13.59765625" customWidth="1"/>
-    <col min="29" max="32" width="11.3984375" customWidth="1"/>
-    <col min="33" max="33" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="45" width="11.3984375" customWidth="1"/>
-    <col min="46" max="46" width="13.86328125" customWidth="1"/>
-    <col min="47" max="59" width="11.3984375" customWidth="1"/>
-    <col min="60" max="66" width="10.86328125" customWidth="1"/>
-    <col min="67" max="70" width="11.3984375" customWidth="1"/>
-    <col min="71" max="72" width="10.86328125" customWidth="1"/>
-    <col min="73" max="73" width="11.3984375" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" customWidth="1"/>
+    <col min="22" max="22" width="10.86328125" customWidth="1"/>
+    <col min="23" max="26" width="11.3984375" customWidth="1"/>
+    <col min="27" max="28" width="10.86328125" customWidth="1"/>
+    <col min="29" max="29" width="13.265625" customWidth="1"/>
+    <col min="30" max="30" width="13.59765625" customWidth="1"/>
+    <col min="31" max="34" width="11.3984375" customWidth="1"/>
+    <col min="35" max="35" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="47" width="11.3984375" customWidth="1"/>
+    <col min="48" max="48" width="13.86328125" customWidth="1"/>
+    <col min="49" max="61" width="11.3984375" customWidth="1"/>
+    <col min="62" max="68" width="10.86328125" customWidth="1"/>
+    <col min="69" max="72" width="11.3984375" customWidth="1"/>
+    <col min="73" max="74" width="10.86328125" customWidth="1"/>
+    <col min="75" max="75" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.45">
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="7">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="7">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="7">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="7">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="7">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="7">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="7">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="7">
         <v>10</v>
       </c>
       <c r="M1">
@@ -1492,581 +1502,696 @@
         <v>16</v>
       </c>
       <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>24</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>25</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>26</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>28</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>29</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>30</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>31</v>
       </c>
-      <c r="AG1">
+      <c r="AH1">
         <v>32</v>
       </c>
-      <c r="AH1">
+      <c r="AI1">
         <v>33</v>
       </c>
-      <c r="AI1">
+      <c r="AJ1">
         <v>34</v>
       </c>
-      <c r="AJ1">
+      <c r="AK1">
         <v>35</v>
       </c>
-      <c r="AK1" s="7">
+      <c r="AL1">
         <v>36</v>
       </c>
-      <c r="AL1" s="7">
+      <c r="AM1" s="7">
         <v>37</v>
       </c>
-      <c r="AM1" s="7">
+      <c r="AN1" s="7">
         <v>38</v>
       </c>
-      <c r="AN1" s="7">
+      <c r="AO1" s="7">
         <v>39</v>
       </c>
-      <c r="AO1" s="7">
+      <c r="AP1" s="7">
         <v>40</v>
       </c>
-      <c r="AP1" s="7">
+      <c r="AQ1" s="7">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7">
+      <c r="AR1" s="7">
         <v>42</v>
       </c>
-      <c r="AR1">
+      <c r="AS1" s="7">
         <v>43</v>
       </c>
-      <c r="AS1">
+      <c r="AT1">
         <v>44</v>
       </c>
-      <c r="AT1">
+      <c r="AU1">
         <v>45</v>
       </c>
-      <c r="AU1">
+      <c r="AV1">
         <v>46</v>
       </c>
-      <c r="AV1">
+      <c r="AW1">
         <v>47</v>
       </c>
-      <c r="AW1">
+      <c r="AX1">
         <v>48</v>
       </c>
-      <c r="AX1">
+      <c r="AY1">
         <v>49</v>
       </c>
-      <c r="AY1">
+      <c r="AZ1">
         <v>50</v>
       </c>
-      <c r="AZ1">
+      <c r="BA1">
         <v>51</v>
       </c>
-      <c r="BA1">
+      <c r="BB1">
         <v>52</v>
       </c>
-      <c r="BB1">
+      <c r="BC1">
         <v>53</v>
       </c>
-      <c r="BC1">
+      <c r="BD1">
         <v>54</v>
       </c>
-      <c r="BD1">
+      <c r="BE1">
         <v>55</v>
       </c>
-      <c r="BE1">
+      <c r="BF1">
         <v>56</v>
       </c>
-      <c r="BF1">
+      <c r="BG1">
         <v>57</v>
       </c>
-      <c r="BG1">
+      <c r="BH1">
         <v>58</v>
       </c>
-      <c r="BH1">
+      <c r="BI1">
         <v>59</v>
       </c>
-      <c r="BI1">
+      <c r="BJ1">
         <v>60</v>
       </c>
-      <c r="BJ1">
+      <c r="BK1">
         <v>61</v>
       </c>
-      <c r="BK1">
+      <c r="BL1">
         <v>62</v>
       </c>
-      <c r="BL1">
+      <c r="BM1">
         <v>63</v>
       </c>
-      <c r="BM1">
+      <c r="BN1">
         <v>64</v>
       </c>
-      <c r="BN1">
+      <c r="BO1">
         <v>65</v>
       </c>
-      <c r="BO1">
+      <c r="BP1">
         <v>66</v>
       </c>
-      <c r="BP1">
+      <c r="BQ1">
         <v>67</v>
       </c>
-      <c r="BQ1">
+      <c r="BR1">
         <v>68</v>
       </c>
-      <c r="BR1">
+      <c r="BS1">
         <v>69</v>
       </c>
-      <c r="BS1">
+      <c r="BT1">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:71" ht="57.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="BU1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" ht="57" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AN2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AP2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AS2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BK2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BL2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BM2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BN2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2">
-        <v>1</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS3" s="2"/>
-    </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+    </row>
+    <row r="4" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="2"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2074,753 +2199,721 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
       <c r="AD8">
         <v>1</v>
       </c>
-      <c r="AJ8">
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
         <v>1</v>
       </c>
       <c r="AW8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-    </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AZ10">
-        <v>1</v>
-      </c>
-      <c r="BC10">
-        <v>1</v>
-      </c>
-      <c r="BE10">
-        <v>1</v>
-      </c>
-      <c r="BF10">
-        <v>1</v>
-      </c>
-      <c r="BG10">
-        <v>1</v>
-      </c>
-      <c r="BJ10">
-        <v>1</v>
-      </c>
-      <c r="BM10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
-      <c r="AA11">
-        <v>1</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-    </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
-        <v>1</v>
-      </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="2"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
-      <c r="BQ15" s="2"/>
-      <c r="BR15" s="2"/>
-      <c r="BS15" s="2"/>
-    </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
-      </c>
-      <c r="BP16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3"/>
+      <c r="BU16" s="3"/>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <v>1</v>
+      </c>
+      <c r="S17" s="2">
+        <v>1</v>
+      </c>
+      <c r="T17" s="2">
+        <v>1</v>
+      </c>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="BR18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>66</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="23" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2">
-        <v>1</v>
-      </c>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
-      <c r="AL22" s="2"/>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
-      <c r="AR22" s="2"/>
-      <c r="AS22" s="2"/>
-      <c r="AT22" s="2"/>
-      <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
-      <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="2"/>
-      <c r="BB22" s="2"/>
-      <c r="BC22" s="2"/>
-      <c r="BD22" s="2"/>
-      <c r="BE22" s="2"/>
-      <c r="BF22" s="2"/>
-      <c r="BG22" s="2"/>
-      <c r="BH22" s="2"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
-      <c r="BS22" s="2"/>
-    </row>
-    <row r="23" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2844,7 +2937,9 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2891,169 +2986,102 @@
       <c r="BQ24" s="2"/>
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
-    </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+    </row>
+    <row r="25" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+    </row>
+    <row r="27" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-    </row>
-    <row r="26" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-    </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3080,9 +3108,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
@@ -3126,1200 +3152,1203 @@
       <c r="BQ27" s="2"/>
       <c r="BR27" s="2"/>
       <c r="BS27" s="2"/>
-    </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+    </row>
+    <row r="28" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+    </row>
+    <row r="29" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+    </row>
+    <row r="30" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3">
-        <v>1</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
-      <c r="BC29" s="3"/>
-      <c r="BD29" s="3"/>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="3"/>
-      <c r="BG29" s="3"/>
-      <c r="BH29" s="3"/>
-      <c r="BI29" s="3"/>
-      <c r="BJ29" s="3"/>
-      <c r="BK29" s="3"/>
-      <c r="BL29" s="3"/>
-      <c r="BM29" s="3"/>
-      <c r="BN29" s="3"/>
-      <c r="BO29" s="3"/>
-      <c r="BP29" s="3"/>
-      <c r="BQ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BR29" s="3"/>
-      <c r="BS29" s="3"/>
-    </row>
-    <row r="30" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
+      <c r="S31" s="3">
+        <v>1</v>
+      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3">
+        <v>1</v>
+      </c>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+      <c r="BQ31" s="3"/>
+      <c r="BR31" s="3"/>
+      <c r="BS31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT31" s="3"/>
+      <c r="BU31" s="3"/>
+    </row>
+    <row r="32" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="2"/>
-      <c r="AL30" s="2"/>
-      <c r="AM30" s="2"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
-      <c r="AP30" s="2"/>
-      <c r="AQ30" s="2"/>
-      <c r="AR30" s="2"/>
-      <c r="AS30" s="2"/>
-      <c r="AT30" s="2"/>
-      <c r="AU30" s="2"/>
-      <c r="AV30" s="2"/>
-      <c r="AW30" s="2"/>
-      <c r="AX30" s="2"/>
-      <c r="AY30" s="2"/>
-      <c r="AZ30" s="2"/>
-      <c r="BA30" s="2"/>
-      <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
-      <c r="BE30" s="2"/>
-      <c r="BF30" s="2"/>
-      <c r="BG30" s="2"/>
-      <c r="BH30" s="2"/>
-      <c r="BI30" s="2"/>
-      <c r="BJ30" s="2"/>
-      <c r="BK30" s="2"/>
-      <c r="BL30" s="2"/>
-      <c r="BM30" s="2"/>
-      <c r="BN30" s="2"/>
-      <c r="BO30" s="2"/>
-      <c r="BP30" s="2"/>
-      <c r="BQ30" s="2"/>
-      <c r="BR30" s="2"/>
-      <c r="BS30" s="2"/>
-    </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2">
+        <v>1</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="S32" s="2">
+        <v>1</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AS32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+      <c r="BA32" s="2"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="2"/>
+      <c r="BH32" s="2"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="2"/>
+      <c r="BO32" s="2"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
+      <c r="BU32" s="2"/>
+    </row>
+    <row r="33" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-      <c r="BQ31" s="2"/>
-      <c r="BR31" s="2"/>
-      <c r="BS31" s="2"/>
-    </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+    </row>
+    <row r="34" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>77</v>
       </c>
-      <c r="AC32">
-        <v>1</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AK32">
-        <v>1</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32">
-        <v>1</v>
-      </c>
-      <c r="AR32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="BB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="2"/>
+      <c r="AU39" s="2"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH39" s="2"/>
+      <c r="BI39" s="2"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+    </row>
+    <row r="40" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="AC33">
-        <v>1</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AK33">
-        <v>1</v>
-      </c>
-      <c r="AR33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="AF40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AY40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>1</v>
+      </c>
+      <c r="AQ41">
+        <v>1</v>
+      </c>
+      <c r="AR41">
+        <v>1</v>
+      </c>
+      <c r="AZ41">
+        <v>1</v>
+      </c>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3">
+        <v>1</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+      <c r="BU42" s="3"/>
+    </row>
+    <row r="43" spans="1:73" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="AS43">
+        <v>1</v>
+      </c>
+      <c r="BB43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="BB44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
+        <v>1</v>
+      </c>
+      <c r="R46" s="5">
+        <v>1</v>
+      </c>
+      <c r="S46" s="5">
+        <v>1</v>
+      </c>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5">
+        <v>1</v>
+      </c>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY46" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BC46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BF46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BG46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5">
+        <v>1</v>
+      </c>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+    </row>
+    <row r="47" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AT34">
-        <v>1</v>
-      </c>
-      <c r="AZ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-      <c r="AQ35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2">
-        <v>1</v>
-      </c>
-      <c r="P37" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2">
-        <v>1</v>
-      </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK37" s="2"/>
-      <c r="AL37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="2"/>
-      <c r="AS37" s="2"/>
-      <c r="AT37" s="2"/>
-      <c r="AU37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY37" s="2"/>
-      <c r="AZ37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF37" s="2"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="2"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37" s="2"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO37" s="2"/>
-      <c r="BP37" s="2"/>
-      <c r="BQ37" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR37" s="2"/>
-      <c r="BS37" s="2"/>
-    </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD38">
-        <v>1</v>
-      </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
-      <c r="AW38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
-      <c r="AD39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>1</v>
-      </c>
-      <c r="AP39">
-        <v>1</v>
-      </c>
-      <c r="AX39">
-        <v>1</v>
-      </c>
-      <c r="AZ39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3">
-        <v>1</v>
-      </c>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="3"/>
-      <c r="AY40" s="3"/>
-      <c r="AZ40" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA40" s="3"/>
-      <c r="BB40" s="3"/>
-      <c r="BC40" s="3"/>
-      <c r="BD40" s="3"/>
-      <c r="BE40" s="3"/>
-      <c r="BF40" s="3"/>
-      <c r="BG40" s="3"/>
-      <c r="BH40" s="3"/>
-      <c r="BI40" s="3"/>
-      <c r="BJ40" s="3"/>
-      <c r="BK40" s="3"/>
-      <c r="BL40" s="3"/>
-      <c r="BM40" s="3"/>
-      <c r="BN40" s="3"/>
-      <c r="BO40" s="3"/>
-      <c r="BP40" s="3"/>
-      <c r="BQ40" s="3"/>
-      <c r="BR40" s="3"/>
-      <c r="BS40" s="3"/>
-    </row>
-    <row r="41" spans="1:71" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="AQ41">
-        <v>1</v>
-      </c>
-      <c r="AZ41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="AQ42">
-        <v>1</v>
-      </c>
-      <c r="AZ42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
-      <c r="AZ43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5">
-        <v>1</v>
-      </c>
-      <c r="P44" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>1</v>
-      </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5">
-        <v>1</v>
-      </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AU44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AV44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AX44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AY44" s="5"/>
-      <c r="AZ44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BA44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BD44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BE44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="5"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="5"/>
-      <c r="BJ44" s="5"/>
-      <c r="BK44" s="5"/>
-      <c r="BL44" s="5"/>
-      <c r="BM44" s="5"/>
-      <c r="BN44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BO44" s="5"/>
-      <c r="BP44" s="5">
-        <v>1</v>
-      </c>
-      <c r="BQ44" s="5"/>
-      <c r="BR44" s="5"/>
-      <c r="BS44" s="5"/>
-    </row>
-    <row r="45" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
-      <c r="AW45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX45" s="3"/>
-      <c r="AY45" s="3"/>
-      <c r="AZ45" s="3"/>
-      <c r="BA45" s="3"/>
-      <c r="BB45" s="3"/>
-      <c r="BC45" s="3"/>
-      <c r="BD45" s="3"/>
-      <c r="BE45" s="3"/>
-      <c r="BF45" s="3"/>
-      <c r="BG45" s="3"/>
-      <c r="BH45" s="3"/>
-      <c r="BI45" s="3"/>
-      <c r="BJ45" s="3"/>
-      <c r="BK45" s="3"/>
-      <c r="BL45" s="3"/>
-      <c r="BM45" s="3"/>
-      <c r="BN45" s="3"/>
-      <c r="BO45" s="3"/>
-      <c r="BP45" s="3"/>
-      <c r="BQ45" s="3"/>
-      <c r="BR45" s="3"/>
-      <c r="BS45" s="3"/>
-    </row>
-    <row r="46" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3"/>
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="3"/>
+      <c r="AQ47" s="3"/>
+      <c r="AR47" s="3"/>
+      <c r="AS47" s="3"/>
+      <c r="AT47" s="3"/>
+      <c r="AU47" s="3"/>
+      <c r="AV47" s="3"/>
+      <c r="AW47" s="3"/>
+      <c r="AX47" s="3"/>
+      <c r="AY47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ47" s="3"/>
+      <c r="BA47" s="3"/>
+      <c r="BB47" s="3"/>
+      <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
+      <c r="BE47" s="3"/>
+      <c r="BF47" s="3"/>
+      <c r="BG47" s="3"/>
+      <c r="BH47" s="3"/>
+      <c r="BI47" s="3"/>
+      <c r="BJ47" s="3"/>
+      <c r="BK47" s="3"/>
+      <c r="BL47" s="3"/>
+      <c r="BM47" s="3"/>
+      <c r="BN47" s="3"/>
+      <c r="BO47" s="3"/>
+      <c r="BP47" s="3"/>
+      <c r="BQ47" s="3"/>
+      <c r="BR47" s="3"/>
+      <c r="BS47" s="3"/>
+      <c r="BT47" s="3"/>
+      <c r="BU47" s="3"/>
+    </row>
+    <row r="48" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2">
-        <v>1</v>
-      </c>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AP46" s="2"/>
-      <c r="AQ46" s="2"/>
-      <c r="AR46" s="2"/>
-      <c r="AS46" s="2"/>
-      <c r="AT46" s="2"/>
-      <c r="AU46" s="2"/>
-      <c r="AV46" s="2"/>
-      <c r="AW46" s="2"/>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
-      <c r="AZ46" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="2"/>
-      <c r="BD46" s="2"/>
-      <c r="BE46" s="2"/>
-      <c r="BF46" s="2"/>
-      <c r="BG46" s="2"/>
-      <c r="BH46" s="2"/>
-      <c r="BI46" s="2"/>
-      <c r="BJ46" s="2"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46" s="2"/>
-      <c r="BM46" s="2"/>
-      <c r="BN46" s="2"/>
-      <c r="BO46" s="2"/>
-      <c r="BP46" s="2"/>
-      <c r="BQ46" s="2"/>
-      <c r="BR46" s="2"/>
-      <c r="BS46" s="2"/>
-    </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AU48" s="2"/>
+      <c r="AV48" s="2"/>
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="2"/>
+      <c r="BE48" s="2"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="2"/>
+      <c r="BI48" s="2"/>
+      <c r="BJ48" s="2"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48" s="2"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48" s="2"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48" s="2"/>
+      <c r="BQ48" s="2"/>
+      <c r="BR48" s="2"/>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="2"/>
+    </row>
+    <row r="49" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2">
-        <v>1</v>
-      </c>
-      <c r="P47" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>1</v>
-      </c>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2">
-        <v>1</v>
-      </c>
-      <c r="T47" s="2">
-        <v>1</v>
-      </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="2"/>
-      <c r="BH47" s="2"/>
-      <c r="BI47" s="2"/>
-      <c r="BJ47" s="2"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47" s="2"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO47" s="2"/>
-      <c r="BP47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ47" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR47" s="2"/>
-      <c r="BS47" s="2"/>
-    </row>
-    <row r="48" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
-      <c r="BK48" s="3"/>
-      <c r="BL48" s="3"/>
-      <c r="BM48" s="3"/>
-      <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
-      <c r="BP48" s="3"/>
-      <c r="BQ48" s="3"/>
-      <c r="BR48" s="3"/>
-      <c r="BS48" s="3"/>
-    </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4333,24 +4362,24 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="2">
-        <v>1</v>
-      </c>
-      <c r="P49" s="2">
-        <v>1</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2">
         <v>1</v>
       </c>
-      <c r="R49" s="2"/>
+      <c r="R49" s="2">
+        <v>1</v>
+      </c>
       <c r="S49" s="2">
         <v>1</v>
       </c>
-      <c r="T49" s="2">
-        <v>1</v>
-      </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -4358,19 +4387,19 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="AF49" s="2">
+        <v>1</v>
+      </c>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AJ49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AJ49" s="2"/>
       <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
+      <c r="AL49" s="2">
+        <v>1</v>
+      </c>
       <c r="AM49" s="2"/>
       <c r="AN49" s="2"/>
       <c r="AO49" s="2"/>
@@ -4385,571 +4414,680 @@
       <c r="AX49" s="2">
         <v>1</v>
       </c>
-      <c r="AY49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="2">
-        <v>1</v>
-      </c>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
+      <c r="BB49" s="2">
+        <v>1</v>
+      </c>
       <c r="BC49" s="2"/>
-      <c r="BD49" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE49" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF49" s="2"/>
-      <c r="BG49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG49" s="2">
+        <v>1</v>
+      </c>
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
       <c r="BJ49" s="2"/>
       <c r="BK49" s="2"/>
       <c r="BL49" s="2"/>
       <c r="BM49" s="2"/>
-      <c r="BN49" s="2">
-        <v>1</v>
-      </c>
+      <c r="BN49" s="2"/>
       <c r="BO49" s="2"/>
       <c r="BP49" s="2">
         <v>1</v>
       </c>
-      <c r="BQ49" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR49" s="2"/>
-      <c r="BS49" s="2"/>
-    </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+    </row>
+    <row r="50" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
+      <c r="AM50" s="3"/>
+      <c r="AN50" s="3"/>
+      <c r="AO50" s="3"/>
+      <c r="AP50" s="3"/>
+      <c r="AQ50" s="3"/>
+      <c r="AR50" s="3"/>
+      <c r="AS50" s="3"/>
+      <c r="AT50" s="3"/>
+      <c r="AU50" s="3"/>
+      <c r="AV50" s="3"/>
+      <c r="AW50" s="3"/>
+      <c r="AX50" s="3"/>
+      <c r="AY50" s="3"/>
+      <c r="AZ50" s="3"/>
+      <c r="BA50" s="3"/>
+      <c r="BB50" s="3"/>
+      <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
+      <c r="BE50" s="3"/>
+      <c r="BF50" s="3"/>
+      <c r="BG50" s="3"/>
+      <c r="BH50" s="3"/>
+      <c r="BI50" s="3"/>
+      <c r="BJ50" s="3"/>
+      <c r="BK50" s="3"/>
+      <c r="BL50" s="3"/>
+      <c r="BM50" s="3"/>
+      <c r="BN50" s="3"/>
+      <c r="BO50" s="3"/>
+      <c r="BP50" s="3"/>
+      <c r="BQ50" s="3"/>
+      <c r="BR50" s="3"/>
+      <c r="BS50" s="3"/>
+      <c r="BT50" s="3"/>
+      <c r="BU50" s="3"/>
+    </row>
+    <row r="51" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <v>1</v>
+      </c>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+      <c r="AT51" s="2"/>
+      <c r="AU51" s="2"/>
+      <c r="AV51" s="2"/>
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="2"/>
+      <c r="BE51" s="2"/>
+      <c r="BF51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH51" s="2"/>
+      <c r="BI51" s="2"/>
+      <c r="BJ51" s="2"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51" s="2"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51" s="2"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ51" s="2"/>
+      <c r="BR51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT51" s="2"/>
+      <c r="BU51" s="2"/>
+    </row>
+    <row r="52" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="T50">
-        <v>1</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AZ50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
+      </c>
+      <c r="BB52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="AF53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3">
-        <v>1</v>
-      </c>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
-      <c r="AW52" s="3"/>
-      <c r="AX52" s="3"/>
-      <c r="AY52" s="3"/>
-      <c r="AZ52" s="3"/>
-      <c r="BA52" s="3"/>
-      <c r="BB52" s="3"/>
-      <c r="BC52" s="3"/>
-      <c r="BD52" s="3"/>
-      <c r="BE52" s="3"/>
-      <c r="BF52" s="3"/>
-      <c r="BG52" s="3"/>
-      <c r="BH52" s="3"/>
-      <c r="BI52" s="3"/>
-      <c r="BJ52" s="3"/>
-      <c r="BK52" s="3"/>
-      <c r="BL52" s="3"/>
-      <c r="BM52" s="3"/>
-      <c r="BN52" s="3"/>
-      <c r="BO52" s="3"/>
-      <c r="BP52" s="3"/>
-      <c r="BQ52" s="3"/>
-      <c r="BR52" s="3"/>
-      <c r="BS52" s="3"/>
-    </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3">
+        <v>1</v>
+      </c>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="3"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="3"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="3"/>
+      <c r="AN54" s="3"/>
+      <c r="AO54" s="3"/>
+      <c r="AP54" s="3"/>
+      <c r="AQ54" s="3"/>
+      <c r="AR54" s="3"/>
+      <c r="AS54" s="3"/>
+      <c r="AT54" s="3"/>
+      <c r="AU54" s="3"/>
+      <c r="AV54" s="3"/>
+      <c r="AW54" s="3"/>
+      <c r="AX54" s="3"/>
+      <c r="AY54" s="3"/>
+      <c r="AZ54" s="3"/>
+      <c r="BA54" s="3"/>
+      <c r="BB54" s="3"/>
+      <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
+      <c r="BE54" s="3"/>
+      <c r="BF54" s="3"/>
+      <c r="BG54" s="3"/>
+      <c r="BH54" s="3"/>
+      <c r="BI54" s="3"/>
+      <c r="BJ54" s="3"/>
+      <c r="BK54" s="3"/>
+      <c r="BL54" s="3"/>
+      <c r="BM54" s="3"/>
+      <c r="BN54" s="3"/>
+      <c r="BO54" s="3"/>
+      <c r="BP54" s="3"/>
+      <c r="BQ54" s="3"/>
+      <c r="BR54" s="3"/>
+      <c r="BS54" s="3"/>
+      <c r="BT54" s="3"/>
+      <c r="BU54" s="3"/>
+    </row>
+    <row r="55" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2">
-        <v>1</v>
-      </c>
-      <c r="O53" s="2">
-        <v>1</v>
-      </c>
-      <c r="P53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
-      <c r="AQ53" s="2"/>
-      <c r="AR53" s="2"/>
-      <c r="AS53" s="2"/>
-      <c r="AT53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU53" s="2"/>
-      <c r="AV53" s="2"/>
-      <c r="AW53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
-      <c r="AZ53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC53" s="2"/>
-      <c r="BD53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="2"/>
-      <c r="BK53" s="2"/>
-      <c r="BL53" s="2"/>
-      <c r="BM53" s="2"/>
-      <c r="BN53" s="2"/>
-      <c r="BO53" s="2"/>
-      <c r="BP53" s="2"/>
-      <c r="BQ53" s="2"/>
-      <c r="BR53" s="2"/>
-      <c r="BS53" s="2"/>
-    </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="2"/>
+      <c r="AV55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE55" s="2"/>
+      <c r="BF55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="2"/>
+      <c r="BJ55" s="2"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55" s="2"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55" s="2"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55" s="2"/>
+      <c r="BQ55" s="2"/>
+      <c r="BR55" s="2"/>
+      <c r="BS55" s="2"/>
+      <c r="BT55" s="2"/>
+      <c r="BU55" s="2"/>
+    </row>
+    <row r="56" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>42</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="AA54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>19</v>
       </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
-      <c r="AT55">
-        <v>1</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AZ55">
-        <v>1</v>
-      </c>
-      <c r="BA55">
-        <v>1</v>
-      </c>
-      <c r="BB55">
-        <v>1</v>
-      </c>
-      <c r="BD55">
-        <v>1</v>
-      </c>
-      <c r="BE55">
-        <v>1</v>
-      </c>
-      <c r="BF55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AV57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
+        <v>1</v>
+      </c>
+      <c r="BD57">
+        <v>1</v>
+      </c>
+      <c r="BF57">
+        <v>1</v>
+      </c>
+      <c r="BG57">
+        <v>1</v>
+      </c>
+      <c r="BH57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="2"/>
-      <c r="AQ56" s="2"/>
-      <c r="AR56" s="2"/>
-      <c r="AS56" s="2"/>
-      <c r="AT56" s="2"/>
-      <c r="AU56" s="2"/>
-      <c r="AV56" s="2"/>
-      <c r="AW56" s="2"/>
-      <c r="AX56" s="2"/>
-      <c r="AY56" s="2"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="2"/>
-      <c r="BD56" s="2"/>
-      <c r="BE56" s="2"/>
-      <c r="BF56" s="2"/>
-      <c r="BG56" s="2"/>
-      <c r="BH56" s="2"/>
-      <c r="BI56" s="2"/>
-      <c r="BJ56" s="2"/>
-      <c r="BK56" s="2"/>
-      <c r="BL56" s="2"/>
-      <c r="BM56" s="2"/>
-      <c r="BN56" s="2"/>
-      <c r="BO56" s="2"/>
-      <c r="BP56" s="2"/>
-      <c r="BQ56" s="2"/>
-      <c r="BR56" s="2"/>
-      <c r="BS56" s="2"/>
-    </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="2"/>
+      <c r="BE58" s="2"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="2"/>
+      <c r="BI58" s="2"/>
+      <c r="BJ58" s="2"/>
+      <c r="BK58" s="2"/>
+      <c r="BL58" s="2"/>
+      <c r="BM58" s="2"/>
+      <c r="BN58" s="2"/>
+      <c r="BO58" s="2"/>
+      <c r="BP58" s="2"/>
+      <c r="BQ58" s="2"/>
+      <c r="BR58" s="2"/>
+      <c r="BS58" s="2"/>
+      <c r="BT58" s="2"/>
+      <c r="BU58" s="2"/>
+    </row>
+    <row r="59" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
-      <c r="AQ57" s="2"/>
-      <c r="AR57" s="2"/>
-      <c r="AS57" s="2"/>
-      <c r="AT57" s="2"/>
-      <c r="AU57" s="2"/>
-      <c r="AV57" s="2"/>
-      <c r="AW57" s="2"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="2"/>
-      <c r="BD57" s="2"/>
-      <c r="BE57" s="2"/>
-      <c r="BF57" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG57" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH57" s="2"/>
-      <c r="BI57" s="2"/>
-      <c r="BJ57" s="2"/>
-      <c r="BK57" s="2"/>
-      <c r="BL57" s="2"/>
-      <c r="BM57" s="2"/>
-      <c r="BN57" s="2"/>
-      <c r="BO57" s="2"/>
-      <c r="BP57" s="2"/>
-      <c r="BQ57" s="2"/>
-      <c r="BR57" s="2"/>
-      <c r="BS57" s="2"/>
-    </row>
-    <row r="58" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+      <c r="AT59" s="2"/>
+      <c r="AU59" s="2"/>
+      <c r="AV59" s="2"/>
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="2"/>
+      <c r="BE59" s="2"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ59" s="2"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59" s="2"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59" s="2"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59" s="2"/>
+      <c r="BQ59" s="2"/>
+      <c r="BR59" s="2"/>
+      <c r="BS59" s="2"/>
+      <c r="BT59" s="2"/>
+      <c r="BU59" s="2"/>
+    </row>
+    <row r="60" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3"/>
-      <c r="AX58" s="3"/>
-      <c r="AY58" s="3"/>
-      <c r="AZ58" s="3"/>
-      <c r="BA58" s="3"/>
-      <c r="BB58" s="3"/>
-      <c r="BC58" s="3"/>
-      <c r="BD58" s="3"/>
-      <c r="BE58" s="3"/>
-      <c r="BF58" s="3"/>
-      <c r="BG58" s="3">
-        <v>1</v>
-      </c>
-      <c r="BH58" s="3"/>
-      <c r="BI58" s="3"/>
-      <c r="BJ58" s="3"/>
-      <c r="BK58" s="3"/>
-      <c r="BL58" s="3"/>
-      <c r="BM58" s="3"/>
-      <c r="BN58" s="3"/>
-      <c r="BO58" s="3"/>
-      <c r="BP58" s="3"/>
-      <c r="BQ58" s="3"/>
-      <c r="BR58" s="3"/>
-      <c r="BS58" s="3"/>
-    </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -4962,12 +5100,8 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
-      <c r="N60" s="3">
-        <v>1</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1</v>
-      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
@@ -5013,7 +5147,9 @@
       <c r="BF60" s="3"/>
       <c r="BG60" s="3"/>
       <c r="BH60" s="3"/>
-      <c r="BI60" s="3"/>
+      <c r="BI60" s="3">
+        <v>1</v>
+      </c>
       <c r="BJ60" s="3"/>
       <c r="BK60" s="3"/>
       <c r="BL60" s="3"/>
@@ -5024,604 +5160,707 @@
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
       <c r="BS60" s="3"/>
-    </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="BT60" s="3"/>
+      <c r="BU60" s="3"/>
+    </row>
+    <row r="61" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+      <c r="AG62" s="3"/>
+      <c r="AH62" s="3"/>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="3"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="3"/>
+      <c r="AQ62" s="3"/>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="3"/>
+      <c r="AT62" s="3"/>
+      <c r="AU62" s="3"/>
+      <c r="AV62" s="3"/>
+      <c r="AW62" s="3"/>
+      <c r="AX62" s="3"/>
+      <c r="AY62" s="3"/>
+      <c r="AZ62" s="3"/>
+      <c r="BA62" s="3"/>
+      <c r="BB62" s="3"/>
+      <c r="BC62" s="3"/>
+      <c r="BD62" s="3"/>
+      <c r="BE62" s="3"/>
+      <c r="BF62" s="3"/>
+      <c r="BG62" s="3"/>
+      <c r="BH62" s="3"/>
+      <c r="BI62" s="3"/>
+      <c r="BJ62" s="3"/>
+      <c r="BK62" s="3"/>
+      <c r="BL62" s="3"/>
+      <c r="BM62" s="3"/>
+      <c r="BN62" s="3"/>
+      <c r="BO62" s="3"/>
+      <c r="BP62" s="3"/>
+      <c r="BQ62" s="3"/>
+      <c r="BR62" s="3"/>
+      <c r="BS62" s="3"/>
+      <c r="BT62" s="3"/>
+      <c r="BU62" s="3"/>
+    </row>
+    <row r="63" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
-      <c r="AQ61" s="2"/>
-      <c r="AR61" s="2"/>
-      <c r="AS61" s="2"/>
-      <c r="AT61" s="2"/>
-      <c r="AU61" s="2"/>
-      <c r="AV61" s="2"/>
-      <c r="AW61" s="2"/>
-      <c r="AX61" s="2"/>
-      <c r="AY61" s="2"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="2"/>
-      <c r="BD61" s="2"/>
-      <c r="BE61" s="2"/>
-      <c r="BF61" s="2"/>
-      <c r="BG61" s="2"/>
-      <c r="BH61" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI61" s="2"/>
-      <c r="BJ61" s="2"/>
-      <c r="BK61" s="2"/>
-      <c r="BL61" s="2"/>
-      <c r="BM61" s="2"/>
-      <c r="BN61" s="2"/>
-      <c r="BO61" s="2"/>
-      <c r="BP61" s="2"/>
-      <c r="BQ61" s="2"/>
-      <c r="BR61" s="2"/>
-      <c r="BS61" s="2"/>
-    </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+      <c r="AH63" s="2"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
+      <c r="AK63" s="2"/>
+      <c r="AL63" s="2"/>
+      <c r="AM63" s="2"/>
+      <c r="AN63" s="2"/>
+      <c r="AO63" s="2"/>
+      <c r="AP63" s="2"/>
+      <c r="AQ63" s="2"/>
+      <c r="AR63" s="2"/>
+      <c r="AS63" s="2"/>
+      <c r="AT63" s="2"/>
+      <c r="AU63" s="2"/>
+      <c r="AV63" s="2"/>
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="2"/>
+      <c r="BA63" s="2"/>
+      <c r="BB63" s="2"/>
+      <c r="BC63" s="2"/>
+      <c r="BD63" s="2"/>
+      <c r="BE63" s="2"/>
+      <c r="BF63" s="2"/>
+      <c r="BG63" s="2"/>
+      <c r="BH63" s="2"/>
+      <c r="BI63" s="2"/>
+      <c r="BJ63" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK63" s="2"/>
+      <c r="BL63" s="2"/>
+      <c r="BM63" s="2"/>
+      <c r="BN63" s="2"/>
+      <c r="BO63" s="2"/>
+      <c r="BP63" s="2"/>
+      <c r="BQ63" s="2"/>
+      <c r="BR63" s="2"/>
+      <c r="BS63" s="2"/>
+      <c r="BT63" s="2"/>
+      <c r="BU63" s="2"/>
+    </row>
+    <row r="64" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="BK62">
-        <v>1</v>
-      </c>
-      <c r="BL62">
-        <v>1</v>
-      </c>
-      <c r="BM62">
-        <v>1</v>
-      </c>
-      <c r="BN62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="BM64">
+        <v>1</v>
+      </c>
+      <c r="BN64">
+        <v>1</v>
+      </c>
+      <c r="BO64">
+        <v>1</v>
+      </c>
+      <c r="BP64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="2"/>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="2"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
-      <c r="AK64" s="2"/>
-      <c r="AL64" s="2"/>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="2"/>
-      <c r="AO64" s="2"/>
-      <c r="AP64" s="2"/>
-      <c r="AQ64" s="2"/>
-      <c r="AR64" s="2"/>
-      <c r="AS64" s="2"/>
-      <c r="AT64" s="2"/>
-      <c r="AU64" s="2"/>
-      <c r="AV64" s="2"/>
-      <c r="AW64" s="2"/>
-      <c r="AX64" s="2"/>
-      <c r="AY64" s="2"/>
-      <c r="AZ64" s="2"/>
-      <c r="BA64" s="2"/>
-      <c r="BB64" s="2"/>
-      <c r="BC64" s="2"/>
-      <c r="BD64" s="2"/>
-      <c r="BE64" s="2"/>
-      <c r="BF64" s="2"/>
-      <c r="BG64" s="2"/>
-      <c r="BH64" s="2"/>
-      <c r="BI64" s="2"/>
-      <c r="BJ64" s="2"/>
-      <c r="BK64" s="2"/>
-      <c r="BL64" s="2"/>
-      <c r="BM64" s="2"/>
-      <c r="BN64" s="2"/>
-      <c r="BO64" s="2"/>
-      <c r="BP64" s="2"/>
-      <c r="BQ64" s="2"/>
-      <c r="BR64" s="2"/>
-      <c r="BS64" s="2"/>
-    </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AK66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AM66" s="2"/>
+      <c r="AN66" s="2"/>
+      <c r="AO66" s="2"/>
+      <c r="AP66" s="2"/>
+      <c r="AQ66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AS66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AU66" s="2"/>
+      <c r="AV66" s="2"/>
+      <c r="AW66" s="2"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2"/>
+      <c r="BA66" s="2"/>
+      <c r="BB66" s="2"/>
+      <c r="BC66" s="2"/>
+      <c r="BD66" s="2"/>
+      <c r="BE66" s="2"/>
+      <c r="BF66" s="2"/>
+      <c r="BG66" s="2"/>
+      <c r="BH66" s="2"/>
+      <c r="BI66" s="2"/>
+      <c r="BJ66" s="2"/>
+      <c r="BK66" s="2"/>
+      <c r="BL66" s="2"/>
+      <c r="BM66" s="2"/>
+      <c r="BN66" s="2"/>
+      <c r="BO66" s="2"/>
+      <c r="BP66" s="2"/>
+      <c r="BQ66" s="2"/>
+      <c r="BR66" s="2"/>
+      <c r="BS66" s="2"/>
+      <c r="BT66" s="2"/>
+      <c r="BU66" s="2"/>
+    </row>
+    <row r="67" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="BR67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="BT69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>28</v>
       </c>
-      <c r="T68">
-        <v>1</v>
-      </c>
-      <c r="AD68">
-        <v>1</v>
-      </c>
-      <c r="AJ68">
-        <v>1</v>
-      </c>
-      <c r="BO68">
-        <v>1</v>
-      </c>
-      <c r="BR68">
-        <v>1</v>
-      </c>
-      <c r="BS68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="BQ70">
+        <v>1</v>
+      </c>
+      <c r="BT70">
+        <v>1</v>
+      </c>
+      <c r="BU70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2">
-        <v>1</v>
-      </c>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
-      <c r="AC69" s="2"/>
-      <c r="AD69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="2"/>
-      <c r="AG69" s="2"/>
-      <c r="AH69" s="2"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="2"/>
-      <c r="AL69" s="2"/>
-      <c r="AM69" s="2"/>
-      <c r="AN69" s="2"/>
-      <c r="AO69" s="2"/>
-      <c r="AP69" s="2"/>
-      <c r="AQ69" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR69" s="2"/>
-      <c r="AS69" s="2"/>
-      <c r="AT69" s="2"/>
-      <c r="AU69" s="2"/>
-      <c r="AV69" s="2"/>
-      <c r="AW69" s="2"/>
-      <c r="AX69" s="2"/>
-      <c r="AY69" s="2"/>
-      <c r="AZ69" s="2"/>
-      <c r="BA69" s="2"/>
-      <c r="BB69" s="2"/>
-      <c r="BC69" s="2"/>
-      <c r="BD69" s="2"/>
-      <c r="BE69" s="2"/>
-      <c r="BF69" s="2"/>
-      <c r="BG69" s="2"/>
-      <c r="BH69" s="2"/>
-      <c r="BI69" s="2"/>
-      <c r="BJ69" s="2"/>
-      <c r="BK69" s="2"/>
-      <c r="BL69" s="2"/>
-      <c r="BM69" s="2"/>
-      <c r="BN69" s="2"/>
-      <c r="BO69" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP69" s="2"/>
-      <c r="BQ69" s="2"/>
-      <c r="BR69" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="2"/>
+      <c r="AO71" s="2"/>
+      <c r="AP71" s="2"/>
+      <c r="AQ71" s="2"/>
+      <c r="AR71" s="2"/>
+      <c r="AS71" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="2"/>
+      <c r="AU71" s="2"/>
+      <c r="AV71" s="2"/>
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="2"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="2"/>
+      <c r="BA71" s="2"/>
+      <c r="BB71" s="2"/>
+      <c r="BC71" s="2"/>
+      <c r="BD71" s="2"/>
+      <c r="BE71" s="2"/>
+      <c r="BF71" s="2"/>
+      <c r="BG71" s="2"/>
+      <c r="BH71" s="2"/>
+      <c r="BI71" s="2"/>
+      <c r="BJ71" s="2"/>
+      <c r="BK71" s="2"/>
+      <c r="BL71" s="2"/>
+      <c r="BM71" s="2"/>
+      <c r="BN71" s="2"/>
+      <c r="BO71" s="2"/>
+      <c r="BP71" s="2"/>
+      <c r="BQ71" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR71" s="2"/>
+      <c r="BS71" s="2"/>
+      <c r="BT71" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2">
-        <v>1</v>
-      </c>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" s="2"/>
-      <c r="AN70" s="2"/>
-      <c r="AO70" s="2"/>
-      <c r="AP70" s="2"/>
-      <c r="AQ70" s="2"/>
-      <c r="AR70" s="2"/>
-      <c r="AS70" s="2"/>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
-      <c r="AY70" s="2"/>
-      <c r="AZ70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BD70" s="2"/>
-      <c r="BE70" s="2"/>
-      <c r="BF70" s="2"/>
-      <c r="BG70" s="2"/>
-      <c r="BH70" s="2"/>
-      <c r="BI70" s="2"/>
-      <c r="BJ70" s="2"/>
-      <c r="BK70" s="2"/>
-      <c r="BL70" s="2"/>
-      <c r="BM70" s="2"/>
-      <c r="BN70" s="2"/>
-      <c r="BO70" s="2"/>
-      <c r="BP70" s="2"/>
-      <c r="BQ70" s="2"/>
-      <c r="BR70" s="2"/>
-      <c r="BS70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:71" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="2"/>
+      <c r="AO72" s="2"/>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="2"/>
+      <c r="AR72" s="2"/>
+      <c r="AS72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2"/>
+      <c r="AV72" s="2"/>
+      <c r="AW72" s="2"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="2"/>
+      <c r="AZ72" s="2"/>
+      <c r="BA72" s="2"/>
+      <c r="BB72" s="2"/>
+      <c r="BC72" s="2"/>
+      <c r="BD72" s="2"/>
+      <c r="BE72" s="2"/>
+      <c r="BF72" s="2"/>
+      <c r="BG72" s="2"/>
+      <c r="BH72" s="2"/>
+      <c r="BI72" s="2"/>
+      <c r="BJ72" s="2"/>
+      <c r="BK72" s="2"/>
+      <c r="BL72" s="2"/>
+      <c r="BM72" s="2"/>
+      <c r="BN72" s="2"/>
+      <c r="BO72" s="2"/>
+      <c r="BP72" s="2"/>
+      <c r="BQ72" s="2"/>
+      <c r="BR72" s="2"/>
+      <c r="BS72" s="2"/>
+      <c r="BT72" s="2"/>
+      <c r="BU72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:73" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
-      <c r="AG71" s="3"/>
-      <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-      <c r="AJ71" s="3"/>
-      <c r="AK71" s="3"/>
-      <c r="AL71" s="3"/>
-      <c r="AM71" s="3"/>
-      <c r="AN71" s="3"/>
-      <c r="AO71" s="3"/>
-      <c r="AP71" s="3"/>
-      <c r="AQ71" s="3"/>
-      <c r="AR71" s="3"/>
-      <c r="AS71" s="3"/>
-      <c r="AT71" s="3"/>
-      <c r="AU71" s="3"/>
-      <c r="AV71" s="3"/>
-      <c r="AW71" s="3"/>
-      <c r="AX71" s="3"/>
-      <c r="AY71" s="3"/>
-      <c r="AZ71" s="3"/>
-      <c r="BA71" s="3"/>
-      <c r="BB71" s="3"/>
-      <c r="BC71" s="3"/>
-      <c r="BD71" s="3"/>
-      <c r="BE71" s="3"/>
-      <c r="BF71" s="3"/>
-      <c r="BG71" s="3"/>
-      <c r="BH71" s="3"/>
-      <c r="BI71" s="3"/>
-      <c r="BJ71" s="3"/>
-      <c r="BK71" s="3"/>
-      <c r="BL71" s="3"/>
-      <c r="BM71" s="3"/>
-      <c r="BN71" s="3"/>
-      <c r="BO71" s="3"/>
-      <c r="BP71" s="3"/>
-      <c r="BQ71" s="3"/>
-      <c r="BR71" s="3"/>
-      <c r="BS71" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="3"/>
+      <c r="AI73" s="3"/>
+      <c r="AJ73" s="3"/>
+      <c r="AK73" s="3"/>
+      <c r="AL73" s="3"/>
+      <c r="AM73" s="3"/>
+      <c r="AN73" s="3"/>
+      <c r="AO73" s="3"/>
+      <c r="AP73" s="3"/>
+      <c r="AQ73" s="3"/>
+      <c r="AR73" s="3"/>
+      <c r="AS73" s="3"/>
+      <c r="AT73" s="3"/>
+      <c r="AU73" s="3"/>
+      <c r="AV73" s="3"/>
+      <c r="AW73" s="3"/>
+      <c r="AX73" s="3"/>
+      <c r="AY73" s="3"/>
+      <c r="AZ73" s="3"/>
+      <c r="BA73" s="3"/>
+      <c r="BB73" s="3"/>
+      <c r="BC73" s="3"/>
+      <c r="BD73" s="3"/>
+      <c r="BE73" s="3"/>
+      <c r="BF73" s="3"/>
+      <c r="BG73" s="3"/>
+      <c r="BH73" s="3"/>
+      <c r="BI73" s="3"/>
+      <c r="BJ73" s="3"/>
+      <c r="BK73" s="3"/>
+      <c r="BL73" s="3"/>
+      <c r="BM73" s="3"/>
+      <c r="BN73" s="3"/>
+      <c r="BO73" s="3"/>
+      <c r="BP73" s="3"/>
+      <c r="BQ73" s="3"/>
+      <c r="BR73" s="3"/>
+      <c r="BS73" s="3"/>
+      <c r="BT73" s="3"/>
+      <c r="BU73" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:BS71" xr:uid="{7DD69CEB-FB4B-428B-8D1B-77C5ED66F830}"/>
-  <conditionalFormatting sqref="B3:B4">
+  <autoFilter ref="B2:BU73" xr:uid="{7DD69CEB-FB4B-428B-8D1B-77C5ED66F830}"/>
+  <conditionalFormatting sqref="B5:D6">
     <cfRule type="duplicateValues" dxfId="69" priority="1572"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B7:D7">
     <cfRule type="duplicateValues" dxfId="68" priority="1566"/>
     <cfRule type="duplicateValues" dxfId="67" priority="1573"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B8:D8">
     <cfRule type="duplicateValues" dxfId="66" priority="1567"/>
     <cfRule type="duplicateValues" dxfId="65" priority="1574"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
+  <conditionalFormatting sqref="B9:D9">
     <cfRule type="duplicateValues" dxfId="64" priority="1575"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
+  <conditionalFormatting sqref="B10:D10">
     <cfRule type="duplicateValues" dxfId="63" priority="1576"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
+  <conditionalFormatting sqref="B11:D11">
     <cfRule type="duplicateValues" dxfId="62" priority="1577"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B12:D12">
     <cfRule type="duplicateValues" dxfId="61" priority="1578"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B13:D13">
     <cfRule type="duplicateValues" dxfId="60" priority="1579"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
+  <conditionalFormatting sqref="B14:D14">
     <cfRule type="duplicateValues" dxfId="59" priority="1580"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
+  <conditionalFormatting sqref="B15:D15">
     <cfRule type="duplicateValues" dxfId="58" priority="1581"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B16:D16">
     <cfRule type="duplicateValues" dxfId="57" priority="1582"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B17:D17">
     <cfRule type="duplicateValues" dxfId="56" priority="1583"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B18:D18">
     <cfRule type="duplicateValues" dxfId="55" priority="1584"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B19:D19">
     <cfRule type="duplicateValues" dxfId="54" priority="1585"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
+  <conditionalFormatting sqref="B20:D20">
     <cfRule type="duplicateValues" dxfId="53" priority="1586"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B26">
+  <conditionalFormatting sqref="B21:D28">
     <cfRule type="duplicateValues" dxfId="52" priority="1588"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B29:D29">
     <cfRule type="duplicateValues" dxfId="51" priority="1589"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B36">
+  <conditionalFormatting sqref="B30:D38">
     <cfRule type="duplicateValues" dxfId="50" priority="1590"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+  <conditionalFormatting sqref="B37:D37">
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B44">
+  <conditionalFormatting sqref="B39:D46">
     <cfRule type="duplicateValues" dxfId="47" priority="1591"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47:D47">
     <cfRule type="duplicateValues" dxfId="46" priority="1592"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
+  <conditionalFormatting sqref="B48:D48">
     <cfRule type="duplicateValues" dxfId="45" priority="1593"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B50">
-    <cfRule type="duplicateValues" dxfId="44" priority="1570"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="1568"/>
+  <conditionalFormatting sqref="B49:D52">
+    <cfRule type="duplicateValues" dxfId="44" priority="1568"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1570"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B51">
+  <conditionalFormatting sqref="B53:D53">
     <cfRule type="duplicateValues" dxfId="42" priority="1594"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B52:B71">
+  <conditionalFormatting sqref="B54:D73">
     <cfRule type="duplicateValues" dxfId="41" priority="1595"/>
     <cfRule type="duplicateValues" dxfId="40" priority="1619"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:BS2 B3:B71">
+  <conditionalFormatting sqref="E2:BU4 B5:D73">
     <cfRule type="duplicateValues" dxfId="39" priority="1627"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:BS2">
+  <conditionalFormatting sqref="E2:BU4">
     <cfRule type="duplicateValues" dxfId="38" priority="1623"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:BT1048576">
+  <conditionalFormatting sqref="E5:BV1048576">
     <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="F2:F4">
     <cfRule type="duplicateValues" dxfId="36" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AG2">
+  <conditionalFormatting sqref="AH2:AI4">
     <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2">
+  <conditionalFormatting sqref="AI2:AI4">
     <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2">
+  <conditionalFormatting sqref="AJ2:AJ4">
     <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2">
+  <conditionalFormatting sqref="AK2:AK4">
     <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
